--- a/JavaProjectWorklog.xlsx
+++ b/JavaProjectWorklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HES\Résumé cours\POO\Projet Natel\NotreProjet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmation\Intellij doc\NatelNew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85189C49-9579-4332-917E-C3A53E4C2E86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65111428-495A-46EE-8C16-7B3CB40717F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="564" yWindow="564" windowWidth="25044" windowHeight="17820" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="564" yWindow="564" windowWidth="25044" windowHeight="17820" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VueGenerale" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="81">
   <si>
     <t>CodeLines</t>
   </si>
@@ -241,31 +241,49 @@
     <t>En cours</t>
   </si>
   <si>
-    <t>FrameGalerie</t>
-  </si>
-  <si>
     <t>FrameBlocNote</t>
   </si>
   <si>
-    <t>FrameJeu</t>
-  </si>
-  <si>
     <t>FrameBatterie</t>
   </si>
   <si>
     <t>pas commencé</t>
   </si>
   <si>
-    <t>Junit</t>
-  </si>
-  <si>
     <t>Serialisation</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>Exécutable</t>
+  </si>
+  <si>
+    <t>Discussion et itérations</t>
+  </si>
+  <si>
+    <t>ContactsData</t>
+  </si>
+  <si>
+    <t>ContactsValidator</t>
+  </si>
+  <si>
+    <t>FrameContactsEdit</t>
+  </si>
+  <si>
+    <t>Test/Junit</t>
+  </si>
+  <si>
+    <t>Dossier créé</t>
+  </si>
+  <si>
+    <t>FrameGallery</t>
+  </si>
+  <si>
+    <t>Jeu</t>
+  </si>
+  <si>
+    <t>Targaryen</t>
+  </si>
+  <si>
+    <t>Ebauche</t>
   </si>
 </sst>
 </file>
@@ -849,7 +867,7 @@
   <dimension ref="B2:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="21"/>
@@ -883,14 +901,14 @@
         <v>59</v>
       </c>
       <c r="D3" s="8">
-        <v>653</v>
+        <v>773</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="8">
         <f>D3/60</f>
-        <v>10.883333333333333</v>
+        <v>12.883333333333333</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>29</v>
@@ -951,65 +969,72 @@
       </c>
     </row>
     <row r="7" spans="2:7">
+      <c r="B7" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D7" s="8">
-        <f>C7*'Working LogOLD'!$B$54</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D8" s="8">
-        <f>C8*'Working LogOLD'!$B$54</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:7">
+      <c r="B9" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="D9" s="8">
-        <f>C9*'Working LogOLD'!$B$54</f>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:7">
+      <c r="B10" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="D10" s="8">
-        <f>C10*'Working LogOLD'!$B$54</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>29</v>
@@ -1105,7 +1130,7 @@
       </c>
       <c r="D16" s="11">
         <f>SUM(D3:D15)</f>
-        <v>1028</v>
+        <v>1778</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -1122,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479F4997-D0AA-4EED-8D71-C7AF49EA2841}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="20.399999999999999"/>
@@ -1274,7 +1299,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>43597</v>
+        <v>43598</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>63</v>
@@ -1291,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>43598</v>
+        <v>43599</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>63</v>
@@ -1307,36 +1332,86 @@
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="5">
+        <v>43600</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4">
+        <v>330</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="5">
+        <v>43601</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="4">
+        <v>180</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="5">
+        <v>43602</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="4">
+        <v>120</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="B14" s="5">
+        <v>43603</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="4">
+        <v>120</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="B15" s="5">
+        <v>43603</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="4">
+        <v>120</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4">
@@ -1577,7 +1652,7 @@
       </c>
       <c r="E48" s="4">
         <f>SUM(E2:E46)</f>
-        <v>1268</v>
+        <v>2138</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>28</v>
@@ -1587,7 +1662,7 @@
       <c r="C49" s="6"/>
       <c r="E49" s="7">
         <f>E48/60</f>
-        <v>21.133333333333333</v>
+        <v>35.633333333333333</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>29</v>
@@ -1622,7 +1697,7 @@
     <row r="54" spans="2:9">
       <c r="B54" s="9">
         <f>E48/B53</f>
-        <v>0.38204278397107561</v>
+        <v>0.64416993070201867</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>9</v>
@@ -1640,10 +1715,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42A2386-4B80-47B7-9A1B-4330AE32B01E}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1666,23 +1741,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -1696,7 +1757,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -1710,7 +1771,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
@@ -1724,13 +1785,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
         <v>65</v>
@@ -1738,87 +1799,155 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
         <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
         <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
